--- a/documentation/Bayesian Tester.xlsx
+++ b/documentation/Bayesian Tester.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Copy of Example" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Thuis" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Copy of Blank for your use" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Copy of Copy of Blank for your " sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Copy of Copy of Copy of Blank f" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Copy of Copy of Copy of Copy of" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Thuis (2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Copy of Blank for your use" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Copy of Copy of Blank for your " sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Copy of Copy of Copy of Blank f" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Copy of Copy of Copy of Copy of" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -225,7 +226,7 @@
   <fonts count="7">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -305,16 +306,16 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -3112,7 +3113,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{003F008B-00F0-4ED3-8DD7-004100BF00E3}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00200052-00A7-4183-BED8-0082004E008B}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -3124,18 +3125,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00EB00B9-00EA-409D-B58F-006700C6002D}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0072000B-001B-48A2-9419-002F00330048}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -3147,18 +3148,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{000F00D9-00FB-4200-80A2-002F00E300EB}">
+          <x14:cfRule type="expression" priority="6" id="{000D0069-0000-4742-8E5A-008600640058}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -3169,18 +3170,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00DC003A-003F-4394-A3BC-002900300043}">
+          <x14:cfRule type="expression" priority="5" id="{00E400C7-0031-4959-B7D3-001200FB0019}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -3191,18 +3192,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{004F0002-00AC-487D-B2AC-00C300D90005}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{00E9003C-007F-4A6E-83DA-0088002900A5}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -3213,18 +3214,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{006900AD-0019-4424-81D0-0048000E0042}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{009E008D-00B2-4EEC-A32C-0010008C005B}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -3235,18 +3236,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{008C0083-009C-490D-A0A1-009B0019000A}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0047003A-00B1-4964-8934-005100150075}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -3257,18 +3258,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{002800B9-0069-4E53-AC15-001D005D0015}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00BC00E7-0023-4497-A788-002C007A0010}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -3279,11 +3280,11 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
@@ -5470,7 +5471,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00370076-0093-4DC2-A9CC-001F001C0005}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{005600AA-00F4-4B54-8719-00F600F80054}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -5482,18 +5483,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00AE004F-005D-4384-B803-001C00010097}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00D200E8-0096-4B07-AF00-00490057006D}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -5505,18 +5506,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{006D00EE-009F-4C8A-8B2C-00F9006D00AA}">
+          <x14:cfRule type="expression" priority="6" id="{00E200CA-0053-4DC5-B7BB-0000005400E2}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -5527,18 +5528,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00900036-009E-4796-86C7-0053008C006F}">
+          <x14:cfRule type="expression" priority="5" id="{0035008E-00F0-4CFE-A028-00FC001900AD}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -5549,18 +5550,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{004700FB-0042-4F76-AD9B-00640070008D}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{00740020-00CB-4DDE-A9E8-003600E400EE}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -5571,18 +5572,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00680014-00D3-4E6B-B54C-004D003A008E}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{000500F5-0097-4B56-979C-0033005200EA}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -5593,18 +5594,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00BF003B-00C8-4B08-A5A3-00FF00FD00C5}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00040043-0096-4F58-AB64-00E0008900DA}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -5615,18 +5616,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{002000FB-0072-4AC4-9F3D-005D007C006F}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00CF0061-00AA-4316-9979-008F002200BD}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -5637,11 +5638,11 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
@@ -5742,7 +5743,7 @@
       </c>
       <c r="B12" s="21">
         <f>A11/24</f>
-        <v>0.58333333330000003</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5850,51 +5851,51 @@
       </c>
       <c r="G16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="H16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="I16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="J16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="K16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="L16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="M16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="N16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="O16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="P16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="Q16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="R16" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -5953,19 +5954,19 @@
       </c>
       <c r="C18" s="20">
         <f t="shared" ref="C18:R18" si="21">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
-        <v>0.9428571429</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D18" s="20">
         <f t="shared" si="21"/>
-        <v>0.96428571429999999</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="21"/>
-        <v>0.96428571429999999</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="21"/>
-        <v>0.98571428569999997</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="G18" s="20" t="str">
         <f t="shared" si="21"/>
@@ -6047,51 +6048,51 @@
       </c>
       <c r="G19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="H19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="I19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="J19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="K19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="L19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="M19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="N19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="O19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="P19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="Q19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="R19" s="16" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is</v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -6253,51 +6254,51 @@
       </c>
       <c r="G27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="H27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="I27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="J27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="K27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="L27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="M27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="N27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="O27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="P27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="Q27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="R27" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>is</v>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -6396,65 +6397,65 @@
       <c r="B29" s="23"/>
       <c r="C29" s="22">
         <f t="shared" ref="C29:R29" si="25">IF(C$28,C18,(1-C18))</f>
-        <v>5.7142857140000003e-02</v>
+        <v>5.7142857142857162e-02</v>
       </c>
       <c r="D29" s="22">
         <f t="shared" si="25"/>
-        <v>3.5714285710000002e-02</v>
+        <v>3.5714285714285698e-02</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" si="25"/>
-        <v>3.5714285710000002e-02</v>
+        <v>3.5714285714285698e-02</v>
       </c>
       <c r="F29" s="22">
         <f t="shared" si="25"/>
-        <v>0.98571428569999997</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="G29" s="22" t="str">
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="H29" s="22" t="str">
+      <c r="H29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="22" t="str">
+      <c r="I29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="22" t="str">
+      <c r="J29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="22" t="str">
+      <c r="K29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="22" t="str">
+      <c r="M29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N29" s="22" t="str">
+      <c r="N29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O29" s="22" t="str">
+      <c r="O29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P29" s="22" t="str">
+      <c r="P29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q29" s="22" t="str">
+      <c r="Q29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R29" s="22" t="str">
+      <c r="R29" s="22" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
@@ -6493,47 +6494,47 @@
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="H30" s="22" t="str">
+      <c r="H30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="22" t="str">
+      <c r="I30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="22" t="str">
+      <c r="J30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="22" t="str">
+      <c r="K30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="22" t="str">
+      <c r="M30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N30" s="22" t="str">
+      <c r="N30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O30" s="22" t="str">
+      <c r="O30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P30" s="22" t="str">
+      <c r="P30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q30" s="22" t="str">
+      <c r="Q30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R30" s="22" t="str">
+      <c r="R30" s="22" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
@@ -6554,65 +6555,65 @@
       <c r="B31" s="23"/>
       <c r="C31" s="22">
         <f t="shared" ref="C31:R31" si="27">C29 * B33</f>
-        <v>3.3333333329999999e-02</v>
+        <v>3.3333333333333347e-02</v>
       </c>
       <c r="D31" s="22">
         <f t="shared" si="27"/>
-        <v>2.8571428570000001e-03</v>
+        <v>2.8571428571428576e-03</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="27"/>
-        <v>1.163710841e-04</v>
+        <v>1.1637108411301957e-04</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" si="27"/>
-        <v>1.211257745e-04</v>
-      </c>
-      <c r="G31" s="22" t="str">
+        <v>1.2112577454666481e-04</v>
+      </c>
+      <c r="G31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H31" s="22" t="str">
+      <c r="H31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" s="22" t="str">
+      <c r="I31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="22" t="str">
+      <c r="J31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="22" t="str">
+      <c r="K31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="22" t="str">
+      <c r="M31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="22" t="str">
+      <c r="N31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O31" s="22" t="str">
+      <c r="O31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P31" s="22" t="str">
+      <c r="P31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q31" s="22" t="str">
+      <c r="Q31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R31" s="22" t="str">
+      <c r="R31" s="22" t="e">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
@@ -6633,65 +6634,65 @@
       <c r="B32" s="23"/>
       <c r="C32" s="22">
         <f t="shared" ref="C32:R32" si="28">C31 + (C30 * (1-B33))</f>
-        <v>0.41666666670000002</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="D32" s="22">
         <f t="shared" si="28"/>
-        <v>0.87685714290000005</v>
+        <v>0.87685714285714278</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="28"/>
-        <v>0.94702090019999996</v>
+        <v>0.94702090024670671</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" si="28"/>
-        <v>2.0118668150000001e-02</v>
-      </c>
-      <c r="G32" s="22" t="str">
+        <v>2.0118668150135573e-02</v>
+      </c>
+      <c r="G32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H32" s="22" t="str">
+      <c r="H32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="22" t="str">
+      <c r="I32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="22" t="str">
+      <c r="J32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="22" t="str">
+      <c r="K32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="22" t="str">
+      <c r="M32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N32" s="22" t="str">
+      <c r="N32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O32" s="22" t="str">
+      <c r="O32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P32" s="22" t="str">
+      <c r="P32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q32" s="22" t="str">
+      <c r="Q32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R32" s="22" t="str">
+      <c r="R32" s="22" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
@@ -6711,69 +6712,69 @@
       </c>
       <c r="B33" s="22">
         <f>$B$12</f>
-        <v>0.58333333330000003</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C33" s="22">
         <f t="shared" ref="C33:R33" si="29">C31/C32</f>
-        <v>8.0000000000000002e-02</v>
+        <v>8.0000000000000043e-02</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="29"/>
-        <v>3.2583903550000002e-03</v>
+        <v>3.2583903551645496e-03</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="29"/>
-        <v>1.228812206e-04</v>
+        <v>1.2288122055458748e-04</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="29"/>
-        <v>6.0205662539999996e-03</v>
-      </c>
-      <c r="G33" s="22" t="str">
+        <v>6.0205662543247711e-03</v>
+      </c>
+      <c r="G33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="22" t="str">
+      <c r="H33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="22" t="str">
+      <c r="I33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="22" t="str">
+      <c r="J33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="22" t="str">
+      <c r="K33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="22" t="str">
+      <c r="L33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="22" t="str">
+      <c r="M33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N33" s="22" t="str">
+      <c r="N33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O33" s="22" t="str">
+      <c r="O33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P33" s="22" t="str">
+      <c r="P33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q33" s="22" t="str">
+      <c r="Q33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R33" s="22" t="str">
+      <c r="R33" s="22" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
@@ -6794,7 +6795,7 @@
       </c>
       <c r="B35" s="22">
         <f t="array" ref="B35">INDEX(33:33, MATCH(99^99,33:33, 1))</f>
-        <v>6.0205662539999996e-03</v>
+        <v>6.0205662543247711e-03</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -7801,7 +7802,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00C600A4-002A-4D37-9536-003D007C00DE}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00970064-0000-4E20-959D-007600BC0052}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -7813,18 +7814,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00E300FD-0005-400B-9799-00F1001C0061}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00D40026-00A6-4F52-9168-005300180061}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -7836,18 +7837,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{001D00B9-0030-4EF3-A81D-00D800FF00B6}">
+          <x14:cfRule type="expression" priority="6" id="{006600A5-0084-432A-B5B2-00D800BD0081}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -7858,18 +7859,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{000F00C6-0095-4E04-93B7-00DD00CA0062}">
+          <x14:cfRule type="expression" priority="5" id="{00EA0066-00CE-445E-9C00-00A50095008A}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -7880,18 +7881,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{006A005F-0055-4EE9-98F7-004C00DA00EF}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00C40068-006B-4442-B9D1-00F7005700AB}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -7902,18 +7903,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{000F00B1-007C-40A0-9911-00A5000B00E7}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00D20059-0059-4D1B-B776-0078003A0062}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -7924,18 +7925,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0076006B-0085-4C55-89D8-0011006000BD}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0045007D-00CB-4B93-9FD0-003C005A004E}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -7946,18 +7947,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{006A00EF-0015-40FD-8154-004700040012}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00430025-0007-4990-A754-00AD00B2009E}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -7968,11 +7969,11 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
@@ -7998,11 +7999,11 @@
   <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.879999999999999"/>
-    <col customWidth="1" min="2" max="2" width="30"/>
-    <col customWidth="1" min="3" max="3" width="24.25"/>
-    <col customWidth="1" min="4" max="4" width="23.379999999999999"/>
-    <col customWidth="1" min="5" max="5" width="22.129999999999999"/>
-    <col customWidth="1" min="6" max="6" width="19.629999999999999"/>
+    <col customWidth="1" min="2" max="2" width="33.421875"/>
+    <col customWidth="1" min="3" max="3" width="33.57421875"/>
+    <col customWidth="1" min="4" max="4" width="41.140625"/>
+    <col customWidth="1" min="5" max="5" width="32.00390625"/>
+    <col customWidth="1" min="6" max="6" width="31.7109375"/>
     <col customWidth="1" min="7" max="7" width="23.25"/>
   </cols>
   <sheetData>
@@ -8055,14 +8056,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="10" t="str">
         <f>$E$6&amp;" how many hours is "&amp;A7</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, how many hours is thuis</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11">
+        <v>14</v>
+      </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -8071,7 +8074,7 @@
       </c>
       <c r="B12" s="21">
         <f>A11/24</f>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8082,10 +8085,16 @@
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -8115,10 +8124,16 @@
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -8141,73 +8156,73 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="137.59999999999999" customHeight="1">
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="30">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone_ping home</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;D14&amp;" "&amp;D15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone_2 home</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;E14&amp;" "&amp;E15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;F14&amp;" "&amp;F15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone_detect home</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;G14&amp;" "&amp;G15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;H14&amp;" "&amp;H15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;I14&amp;" "&amp;I15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;J14&amp;" "&amp;J15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;K14&amp;" "&amp;K15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;L14&amp;" "&amp;L15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;M14&amp;" "&amp;M15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;N14&amp;" "&amp;N15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;O14&amp;" "&amp;O15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;P14&amp;" "&amp;P15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;Q14&amp;" "&amp;Q15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;R14&amp;" "&amp;R15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -8225,10 +8240,16 @@
         <f>"Hours to_state is true when "&amp;$A$7&amp;":"</f>
         <v xml:space="preserve">Hours to_state is true when thuis:</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="11">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>13.5</v>
+      </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>13.800000000000001</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -8256,68 +8277,68 @@
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="31">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="D18" s="20" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+      <c r="C18" s="20">
+        <f>IF(AND(C17&gt;0,C17&lt;$A$11),C17/$A$11,"NA")</f>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="20">
+        <f>IF(AND(D17&gt;0,D17&lt;$A$11),D17/$A$11,"NA")</f>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
-      </c>
-      <c r="F18" s="20" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+        <f>IF(AND(E17&gt;0,E17&lt;$A$11),E17/$A$11,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="F18" s="20">
+        <f>IF(AND(F17&gt;0,F17&lt;$A$11),F17/$A$11,"NA")</f>
+        <v>0.98571428571428577</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(G17&gt;0,G17&lt;$A$11),G17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(H17&gt;0,H17&lt;$A$11),H17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(I17&gt;0,I17&lt;$A$11),I17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(J17&gt;0,J17&lt;$A$11),J17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(K17&gt;0,K17&lt;$A$11),K17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(L17&gt;0,L17&lt;$A$11),L17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(M17&gt;0,M17&lt;$A$11),M17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(N17&gt;0,N17&lt;$A$11),N17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(O17&gt;0,O17&lt;$A$11),O17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(P17&gt;0,P17&lt;$A$11),P17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(Q17&gt;0,Q17&lt;$A$11),Q17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(R17&gt;0,R17&lt;$A$11),R17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -8330,73 +8351,73 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="121.5" customHeight="1">
       <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="32">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone_ping home</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;D14&amp;" "&amp;D15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone_2 home</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;E14&amp;" "&amp;E15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;F14&amp;" "&amp;F15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone_detect home</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;G14&amp;" "&amp;G15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;H14&amp;" "&amp;H15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;I14&amp;" "&amp;I15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;J14&amp;" "&amp;J15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;K14&amp;" "&amp;K15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;L14&amp;" "&amp;L15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;M14&amp;" "&amp;M15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;N14&amp;" "&amp;N15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;O14&amp;" "&amp;O15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;P14&amp;" "&amp;P15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;Q14&amp;" "&amp;Q15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;R14&amp;" "&amp;R15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -8413,10 +8434,16 @@
         <f>"Hours to_state is true when not "&amp;$A$7&amp;":"</f>
         <v xml:space="preserve">Hours to_state is true when not thuis:</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="11">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.20000000000000001</v>
+      </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>0.20000000000000001</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -8444,68 +8471,68 @@
       <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="33">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="D21" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+      <c r="C21" s="21">
+        <f>IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <v>2.e-02</v>
+      </c>
+      <c r="D21" s="21">
+        <f>IF(AND(D20&gt;0,D20&lt;(24-$A$11)),D20/(24-$A$11),"NA")</f>
+        <v>2.e-02</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="F21" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+        <f>IF(AND(E20&gt;0,E20&lt;(24-$A$11)),E20/(24-$A$11),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="F21" s="21">
+        <f>IF(AND(F20&gt;0,F20&lt;(24-$A$11)),F20/(24-$A$11),"NA")</f>
+        <v>2.e-02</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(G20&gt;0,G20&lt;(24-$A$11)),G20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(H20&gt;0,H20&lt;(24-$A$11)),H20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(I20&gt;0,I20&lt;(24-$A$11)),I20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(J20&gt;0,J20&lt;(24-$A$11)),J20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(K20&gt;0,K20&lt;(24-$A$11)),K20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(L20&gt;0,L20&lt;(24-$A$11)),L20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(M20&gt;0,M20&lt;(24-$A$11)),M20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(N20&gt;0,N20&lt;(24-$A$11)),N20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(O20&gt;0,O20&lt;(24-$A$11)),O20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(P20&gt;0,P20&lt;(24-$A$11)),P20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(Q20&gt;0,Q20&lt;(24-$A$11)),Q20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(R20&gt;0,R20&lt;(24-$A$11)),R20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -8518,81 +8545,83 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="22" ht="4.0999999999999996" customHeight="1"/>
+    <row r="23" ht="4.0999999999999996" customHeight="1"/>
+    <row r="24" ht="6.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="34">C14&amp;" is "&amp;C15</f>
-        <v>is</v>
+        <f>C14&amp;" is "&amp;C15</f>
+        <v xml:space="preserve">device_tracker.gphone_ping is home</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>D14&amp;" is "&amp;D15</f>
+        <v xml:space="preserve">device_tracker.gphone_2 is home</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>E14&amp;" is "&amp;E15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>F14&amp;" is "&amp;F15</f>
+        <v xml:space="preserve">device_tracker.gphone_detect is home</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>G14&amp;" is "&amp;G15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>H14&amp;" is "&amp;H15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>I14&amp;" is "&amp;I15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>J14&amp;" is "&amp;J15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>K14&amp;" is "&amp;K15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>L14&amp;" is "&amp;L15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>M14&amp;" is "&amp;M15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>N14&amp;" is "&amp;N15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>O14&amp;" is "&amp;O15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>P14&amp;" is "&amp;P15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>Q14&amp;" is "&amp;Q15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>R14&amp;" is "&amp;R15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -8612,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7" t="b">
         <v>0</v>
@@ -8689,68 +8718,68 @@
         <v>30</v>
       </c>
       <c r="B29" s="23"/>
-      <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="35">IF(C$28,C18,(1-C18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
+      <c r="C29" s="22">
+        <f>IF(C$28,C18,(1-C18))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="22">
+        <f>IF(D$28,D18,(1-D18))</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E29" s="22" t="e">
+        <f>IF(E$28,E18,(1-E18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="22">
+        <f>IF(F$28,F18,(1-F18))</f>
+        <v>1.4285714285714235e-02</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="H29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" s="22" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(G$28,G18,(1-G18))</f>
+        <v>NA</v>
+      </c>
+      <c r="H29" s="22" t="e">
+        <f>IF(H$28,H18,(1-H18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="22" t="e">
+        <f>IF(I$28,I18,(1-I18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="22" t="e">
+        <f>IF(J$28,J18,(1-J18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="22" t="e">
+        <f>IF(K$28,K18,(1-K18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="22" t="e">
+        <f>IF(L$28,L18,(1-L18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="22" t="e">
+        <f>IF(M$28,M18,(1-M18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="22" t="e">
+        <f>IF(N$28,N18,(1-N18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" s="22" t="e">
+        <f>IF(O$28,O18,(1-O18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" s="22" t="e">
+        <f>IF(P$28,P18,(1-P18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q29" s="22" t="e">
+        <f>IF(Q$28,Q18,(1-Q18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="22" t="e">
+        <f>IF(R$28,R18,(1-R18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -8768,68 +8797,68 @@
         <v>32</v>
       </c>
       <c r="B30" s="23"/>
-      <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="36">IF(C$28,C21,(1-C21))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
+      <c r="C30" s="22">
+        <f>IF(C$28,C21,(1-C21))</f>
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="D30" s="22">
+        <f>IF(D$28,D21,(1-D21))</f>
+        <v>2.e-02</v>
+      </c>
+      <c r="E30" s="22" t="e">
+        <f>IF(E$28,E21,(1-E21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="22">
+        <f>IF(F$28,F21,(1-F21))</f>
+        <v>0.97999999999999998</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="H30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(G$28,G21,(1-G21))</f>
+        <v>NA</v>
+      </c>
+      <c r="H30" s="22" t="e">
+        <f>IF(H$28,H21,(1-H21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="22" t="e">
+        <f>IF(I$28,I21,(1-I21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="22" t="e">
+        <f>IF(J$28,J21,(1-J21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="22" t="e">
+        <f>IF(K$28,K21,(1-K21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="22" t="e">
+        <f>IF(L$28,L21,(1-L21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="22" t="e">
+        <f>IF(M$28,M21,(1-M21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="22" t="e">
+        <f>IF(N$28,N21,(1-N21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" s="22" t="e">
+        <f>IF(O$28,O21,(1-O21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P30" s="22" t="e">
+        <f>IF(P$28,P21,(1-P21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q30" s="22" t="e">
+        <f>IF(Q$28,Q21,(1-Q21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="22" t="e">
+        <f>IF(R$28,R21,(1-R21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -8847,68 +8876,68 @@
         <v>35</v>
       </c>
       <c r="B31" s="23"/>
-      <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="37">C29 * B33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" s="22" t="str">
-        <f t="shared" si="37"/>
+      <c r="C31" s="22">
+        <f>C29*B33</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D31" s="22">
+        <f>D29*C33</f>
+        <v>0.40178571428571436</v>
+      </c>
+      <c r="E31" s="22" t="e">
+        <f>E29*D33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="22" t="e">
+        <f>F29*E33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="22" t="e">
+        <f>G29*F33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="22" t="e">
+        <f>H29*G33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="22" t="e">
+        <f>I29*H33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="22" t="e">
+        <f>J29*I33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="22" t="e">
+        <f>K29*J33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="22" t="e">
+        <f>L29*K33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="22" t="e">
+        <f>M29*L33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="22" t="e">
+        <f>N29*M33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O31" s="22" t="e">
+        <f>O29*N33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" s="22" t="e">
+        <f>P29*O33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q31" s="22" t="e">
+        <f>Q29*P33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="22" t="e">
+        <f>R29*Q33</f>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -8926,68 +8955,68 @@
         <v>36</v>
       </c>
       <c r="B32" s="23"/>
-      <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="38">C31 + (C30 * (1-B33))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R32" s="22" t="str">
-        <f t="shared" si="38"/>
+      <c r="C32" s="22">
+        <f>C31+(C30*(1-B33))</f>
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="D32" s="22">
+        <f>D31+(D30*(1-C33))</f>
+        <v>0.41345238095238102</v>
+      </c>
+      <c r="E32" s="22" t="e">
+        <f>E31+(E30*(1-D33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="22" t="e">
+        <f>F31+(F30*(1-E33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="22" t="e">
+        <f>G31+(G30*(1-F33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="22" t="e">
+        <f>H31+(H30*(1-G33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="22" t="e">
+        <f>I31+(I30*(1-H33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="22" t="e">
+        <f>J31+(J30*(1-I33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="22" t="e">
+        <f>K31+(K30*(1-J33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="22" t="e">
+        <f>L31+(L30*(1-K33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="22" t="e">
+        <f>M31+(M30*(1-L33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="22" t="e">
+        <f>N31+(N30*(1-M33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32" s="22" t="e">
+        <f>O31+(O30*(1-N33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="22" t="e">
+        <f>P31+(P30*(1-O33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q32" s="22" t="e">
+        <f>Q31+(Q30*(1-P33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="22" t="e">
+        <f>R31+(R30*(1-Q33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -9006,70 +9035,70 @@
       </c>
       <c r="B33" s="22">
         <f>$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="39">C31/C32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R33" s="22" t="str">
-        <f t="shared" si="39"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C33" s="22">
+        <f>C31/C32</f>
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="D33" s="22">
+        <f>D31/D32</f>
+        <v>0.9717823207601497</v>
+      </c>
+      <c r="E33" s="22" t="e">
+        <f>E31/E32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="22" t="e">
+        <f>F31/F32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" s="22" t="e">
+        <f>G31/G32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="22" t="e">
+        <f>H31/H32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="22" t="e">
+        <f>I31/I32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="22" t="e">
+        <f>J31/J32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="22" t="e">
+        <f>K31/K32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="22" t="e">
+        <f>L31/L32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="22" t="e">
+        <f>M31/M32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="22" t="e">
+        <f>N31/N32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33" s="22" t="e">
+        <f>O31/O32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P33" s="22" t="e">
+        <f>P31/P32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q33" s="22" t="e">
+        <f>Q31/Q32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="22" t="e">
+        <f>R31/R32</f>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -9088,8 +9117,8 @@
         <v>54</v>
       </c>
       <c r="B35" s="22">
-        <f t="array" ref="B35">INDEX(33:33, MATCH(99^99,33:33, 1))</f>
-        <v>0</v>
+        <f t="array" ref="B35">INDEX(33:33,MATCH(99^99,33:33,1))</f>
+        <v>0.9717823207601497</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -9098,13 +9127,13 @@
       </c>
       <c r="B36" s="6" t="b">
         <f>B35&gt;A26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="24" t="str">
         <f>$A$7&amp;" is "&amp;IF(B36,"ON","OFF")</f>
-        <v xml:space="preserve">thuis is OFF</v>
+        <v xml:space="preserve">thuis is ON</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -9116,7 +9145,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="120" customHeight="1">
       <c r="A42" s="25" t="s">
         <v>40</v>
       </c>
@@ -10096,7 +10125,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00BC00EC-000E-4136-805F-00D3007C008B}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00910087-00FC-4396-BE36-003E007B00F1}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -10108,18 +10137,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00C300CC-0014-4E30-B3C9-004F002D002D}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00610048-0071-4231-AB79-00C6006300DF}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -10131,18 +10160,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00FA00A9-0099-43C5-A372-004600A80043}">
+          <x14:cfRule type="expression" priority="6" id="{00C20086-007B-4174-B94B-0086000100F2}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -10153,18 +10182,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{009F007D-0021-4D8F-B2E5-005D00670068}">
+          <x14:cfRule type="expression" priority="5" id="{00060011-006F-4239-9B8D-004D00F0005F}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -10175,18 +10204,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B80005-001C-4976-8BC6-00B700E000C9}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B60085-00AE-452B-8427-002E00AE0005}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -10197,18 +10226,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00D6000F-009F-4752-877B-00FF00A500CF}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00AA0033-0049-47EB-9938-00D500420081}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -10219,18 +10248,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{004B009D-0022-4305-BD58-00A800C80001}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{007B00B9-0025-42B3-9859-007700A60056}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10241,18 +10270,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{008E0039-0075-4C96-9902-005400F400A3}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00B7003C-003A-419F-9BB9-001000E800E9}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10263,11 +10292,11 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
@@ -10441,67 +10470,67 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="40">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C16:R16" si="30">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="S16" s="17"/>
@@ -10552,67 +10581,67 @@
         <v>30</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="41">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <f t="shared" ref="C18:R18" si="31">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
         <v>NA</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -10630,67 +10659,67 @@
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="42">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C19:R19" si="32">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="S19" s="17"/>
@@ -10740,67 +10769,67 @@
         <v>32</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="43">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <f t="shared" ref="C21:R21" si="33">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -10826,67 +10855,67 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="44">C14&amp;" is "&amp;C15</f>
+        <f t="shared" ref="C27:R27" si="34">C14&amp;" is "&amp;C15</f>
         <v>is</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="S27" s="22"/>
@@ -10985,67 +11014,67 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="45">IF(C$28,C18,(1-C18))</f>
+        <f t="shared" ref="C29:R29" si="35">IF(C$28,C18,(1-C18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="H29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="R29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -11064,67 +11093,67 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="46">IF(C$28,C21,(1-C21))</f>
+        <f t="shared" ref="C30:R30" si="36">IF(C$28,C21,(1-C21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="R30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -11143,67 +11172,67 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="47">C29 * B33</f>
+        <f t="shared" ref="C31:R31" si="37">C29 * B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="R31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -11222,67 +11251,67 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="48">C31 + (C30 * (1-B33))</f>
+        <f t="shared" ref="C32:R32" si="38">C31 + (C30 * (1-B33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="N32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="R32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -11304,67 +11333,67 @@
         <v>0</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="49">C31/C32</f>
+        <f t="shared" ref="C33:R33" si="39">C31/C32</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="N33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="R33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -12391,7 +12420,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00A40043-001E-46F4-9DE6-005800B60038}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00D80011-00EE-407A-B159-006600CD0059}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -12403,18 +12432,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00670034-0045-4854-AF79-00DC00B900F3}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00A100D5-0049-467A-9F10-00A900970070}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -12426,18 +12455,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{004B0081-0045-4304-8542-00DB007100BD}">
+          <x14:cfRule type="expression" priority="6" id="{004F0004-00EB-4898-A61A-008900D300D9}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -12448,18 +12477,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{003700E5-003F-400D-B97E-008F00AB0052}">
+          <x14:cfRule type="expression" priority="5" id="{00260085-0055-4132-8F77-00C80073002E}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -12470,18 +12499,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{008800D9-0059-41F8-9C99-00B6009A008C}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00CA002C-0034-4E61-AF38-00D200270059}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -12492,18 +12521,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00A6005A-00B6-4830-B011-00A000A30035}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00970066-0030-4BA3-B3BA-00A900F8004A}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -12514,18 +12543,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00D40095-00E2-43E3-8323-005300DC00B0}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00F800D1-008C-4DC6-9312-001C00E000D3}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -12536,18 +12565,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00590002-00F0-4E27-9A4C-00D400C70028}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{009A0097-0050-4353-A253-0057009600D7}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -12558,11 +12587,11 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
@@ -12736,67 +12765,67 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="50">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C16:R16" si="40">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="S16" s="17"/>
@@ -12847,67 +12876,67 @@
         <v>30</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="51">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <f t="shared" ref="C18:R18" si="41">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
         <v>NA</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -12925,67 +12954,67 @@
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="52">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C19:R19" si="42">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="S19" s="17"/>
@@ -13035,67 +13064,67 @@
         <v>32</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="53">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <f t="shared" ref="C21:R21" si="43">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -13121,67 +13150,67 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="54">C14&amp;" is "&amp;C15</f>
+        <f t="shared" ref="C27:R27" si="44">C14&amp;" is "&amp;C15</f>
         <v>is</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="S27" s="22"/>
@@ -13280,67 +13309,67 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="55">IF(C$28,C18,(1-C18))</f>
+        <f t="shared" ref="C29:R29" si="45">IF(C$28,C18,(1-C18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>NA</v>
       </c>
       <c r="H29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="R29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -13359,67 +13388,67 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="56">IF(C$28,C21,(1-C21))</f>
+        <f t="shared" ref="C30:R30" si="46">IF(C$28,C21,(1-C21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>NA</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="R30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -13438,67 +13467,67 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="57">C29 * B33</f>
+        <f t="shared" ref="C31:R31" si="47">C29 * B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="R31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -13517,67 +13546,67 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="58">C31 + (C30 * (1-B33))</f>
+        <f t="shared" ref="C32:R32" si="48">C31 + (C30 * (1-B33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="N32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -13599,67 +13628,67 @@
         <v>0</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="59">C31/C32</f>
+        <f t="shared" ref="C33:R33" si="49">C31/C32</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="N33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="R33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -14686,7 +14715,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00D800D2-00F4-4BB4-8000-009800DE00FB}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00B90084-00B0-4AE5-A427-0056004600D8}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -14698,18 +14727,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00340097-0051-4D9D-B085-007F00DA00A4}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{006E0071-0087-4442-8863-002C002B00EE}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -14721,18 +14750,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{001B0004-00EF-48F9-A3B1-00AC00B700F1}">
+          <x14:cfRule type="expression" priority="6" id="{00BA00D2-0010-4D8F-898F-006F00250060}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -14743,18 +14772,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{007E00AC-00F3-456B-AE48-002C00D600C0}">
+          <x14:cfRule type="expression" priority="5" id="{00BD0092-00D4-4274-8D75-005C00DA00AB}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -14765,18 +14794,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{000500BB-00D0-4A9B-B5F1-006A00C000E4}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{003300EF-001C-48D7-9D99-006A0027001D}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -14787,18 +14816,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0089008E-00AD-4183-B6D7-001F000F0080}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00A300AB-0035-4160-A20D-004300A00037}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -14809,18 +14838,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00F40067-00F8-4C1E-987B-000E002A00F5}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00BD005D-006C-4EDE-B05F-007E008100AE}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -14831,18 +14860,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00D1003C-00A3-42E7-861D-00EB0075007F}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{001800DB-00AB-4965-A33E-0037006A00DC}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -14853,11 +14882,11 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
@@ -15031,67 +15060,67 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="60">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C16:R16" si="50">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="S16" s="17"/>
@@ -15142,67 +15171,67 @@
         <v>30</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="61">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <f t="shared" ref="C18:R18" si="51">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
         <v>NA</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -15220,67 +15249,67 @@
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="62">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C19:R19" si="52">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="S19" s="17"/>
@@ -15330,67 +15359,67 @@
         <v>32</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="63">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <f t="shared" ref="C21:R21" si="53">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -15416,67 +15445,67 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="64">C14&amp;" is "&amp;C15</f>
+        <f t="shared" ref="C27:R27" si="54">C14&amp;" is "&amp;C15</f>
         <v>is</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="S27" s="22"/>
@@ -15575,67 +15604,67 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="65">IF(C$28,C18,(1-C18))</f>
+        <f t="shared" ref="C29:R29" si="55">IF(C$28,C18,(1-C18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>NA</v>
       </c>
       <c r="H29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="R29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -15654,67 +15683,67 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="66">IF(C$28,C21,(1-C21))</f>
+        <f t="shared" ref="C30:R30" si="56">IF(C$28,C21,(1-C21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>NA</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="R30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -15733,67 +15762,67 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="67">C29 * B33</f>
+        <f t="shared" ref="C31:R31" si="57">C29 * B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="R31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -15812,67 +15841,67 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="68">C31 + (C30 * (1-B33))</f>
+        <f t="shared" ref="C32:R32" si="58">C31 + (C30 * (1-B33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="N32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="R32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -15894,67 +15923,67 @@
         <v>0</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="69">C31/C32</f>
+        <f t="shared" ref="C33:R33" si="59">C31/C32</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="N33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="R33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -16981,7 +17010,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{0056008C-0019-41EF-8A3F-009C00490075}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00E2007E-007F-4060-B5D5-00290011008C}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -16993,18 +17022,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00150053-00C3-41EA-8213-0033002C0096}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0085006E-00EB-4E6E-A4D0-003F005300DC}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -17016,18 +17045,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00A200F3-00A0-453E-82DD-00DF00B80097}">
+          <x14:cfRule type="expression" priority="6" id="{00D50097-000A-4EF6-8465-004A00290008}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -17038,18 +17067,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{009000A5-00CD-41AC-B032-009B0023001D}">
+          <x14:cfRule type="expression" priority="5" id="{00C4002F-004F-4423-9F89-00D60070000E}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -17060,18 +17089,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B100D2-0026-438C-B5E7-008300AA0056}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00870075-0003-4F43-AACB-004D00D50083}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -17082,18 +17111,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{004F000F-0083-40AA-AF30-0083002B00CB}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{003100A3-00AA-4D14-B030-001800BB0059}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -17104,18 +17133,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00AF0098-00AB-4B47-B4FB-00C400A800EE}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00960034-0002-4A31-B225-0058007C0016}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -17126,18 +17155,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{002700F3-000B-4B20-9572-00B600D6000A}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{0023003A-003F-4324-92D4-006E009B00AF}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -17148,11 +17177,2306 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A18 C18:AA18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.879999999999999"/>
+    <col customWidth="1" min="2" max="2" width="30"/>
+    <col customWidth="1" min="3" max="3" width="24.25"/>
+    <col customWidth="1" min="4" max="4" width="23.379999999999999"/>
+    <col customWidth="1" min="5" max="5" width="22.129999999999999"/>
+    <col customWidth="1" min="6" max="6" width="19.629999999999999"/>
+    <col customWidth="1" min="7" max="7" width="23.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="str">
+        <f>$E$6&amp;" how many hours is "&amp;A7</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, how many hours is thuis</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="21">
+        <f>A11/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f t="shared" ref="C16:R16" si="60">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="I16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="K16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="L16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="M16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="N16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="O16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="P16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="Q16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="R16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="str">
+        <f>"Hours to_state is true when "&amp;$A$7&amp;":"</f>
+        <v xml:space="preserve">Hours to_state is true when thuis:</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f t="shared" ref="C18:R18" si="61">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="F18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="H18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="I18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="J18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="K18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="L18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="M18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="N18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="O18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="P18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Q18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="R18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f t="shared" ref="C19:R19" si="62">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="I19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="K19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="L19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="M19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="N19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="O19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="P19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="Q19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="R19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="str">
+        <f>"Hours to_state is true when not "&amp;$A$7&amp;":"</f>
+        <v xml:space="preserve">Hours to_state is true when not thuis:</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="21" t="str">
+        <f t="shared" ref="C21:R21" si="63">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="D21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="E21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="F21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="G21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="H21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="I21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="K21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="L21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="M21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="N21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="O21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="P21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="Q21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="R21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="C27" s="22" t="str">
+        <f t="shared" ref="C27:R27" si="64">C14&amp;" is "&amp;C15</f>
+        <v>is</v>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="E27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="F27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="G27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="H27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="I27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="J27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="K27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="L27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="M27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="N27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="O27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="P27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="Q27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="R27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" hidden="1" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22" t="str">
+        <f t="shared" ref="C29:R29" si="65">IF(C$28,C18,(1-C18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>NA</v>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+    </row>
+    <row r="30" ht="15.75" hidden="1" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22" t="str">
+        <f t="shared" ref="C30:R30" si="66">IF(C$28,C21,(1-C21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>NA</v>
+      </c>
+      <c r="H30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+    </row>
+    <row r="31" ht="15.75" hidden="1" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22" t="str">
+        <f t="shared" ref="C31:R31" si="67">C29 * B33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+    </row>
+    <row r="32" ht="15.75" hidden="1" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="str">
+        <f t="shared" ref="C32:R32" si="68">C31 + (C30 * (1-B33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+    </row>
+    <row r="33" ht="15.75" hidden="1" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="22">
+        <f>$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="22" t="str">
+        <f t="shared" ref="C33:R33" si="69">C31/C32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="22">
+        <f t="array" ref="B35">INDEX(33:33, MATCH(99^99,33:33, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="b">
+        <f>B35&gt;A26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="24" t="str">
+        <f>$A$7&amp;" is "&amp;IF(B36,"ON","OFF")</f>
+        <v xml:space="preserve">thuis is OFF</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="14" t="str">
+        <f>"7. Change Threshold to get desired performance. Increase to reduce "&amp;$A$7&amp;" turning on falesly. Reduce the threshold to reduce it turning off falsely."</f>
+        <v xml:space="preserve">7. Change Threshold to get desired performance. Increase to reduce thuis turning on falesly. Reduce the threshold to reduce it turning off falsely.</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A37:B38"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="full-examples" ref="A3"/>
+    <hyperlink r:id="rId1" location="estimating-probabilities" ref="A42"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00890014-0013-4461-948D-001400050045}">
+            <xm:f>0.001</xm:f>
+            <xm:f>23.999</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00BE0085-0011-4420-8D1F-001700B4001C}">
+            <xm:f>0.0001</xm:f>
+            <xm:f>0.9999</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" id="{00CB00AE-0068-4646-9BF1-00B1009700AB}">
+            <xm:f>NOT($B$36)</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFBF9000"/>
+                  <bgColor rgb="FFBF9000"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A37:B38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{000100CE-0080-4408-A670-000B00BF00B4}">
+            <xm:f>$B$36</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF38761D"/>
+                  <bgColor rgb="FF38761D"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A37:B38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B5003C-0098-43DC-8281-0018001F0022}">
+            <xm:f>24-$A$11</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A20 C20:AA20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{002300EE-002B-4667-A916-00650084004D}">
+            <xm:f>$A$11</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A17 C17:AA17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{000E0037-00D2-4CF5-AFCD-00B2002F008A}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00D80064-00F7-4A15-8EAF-002600BA0055}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>

--- a/documentation/Bayesian Tester.xlsx
+++ b/documentation/Bayesian Tester.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Copy of Example" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Thuis" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Thuis (2)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Copy of Blank for your use" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Copy of Copy of Blank for your " sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Copy of Copy of Copy of Blank f" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Copy of Copy of Copy of Copy of" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Thuis (3)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Copy of Blank for your use" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Copy of Copy of Blank for your " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Copy of Copy of Copy of Blank f" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Copy of Copy of Copy of Copy of" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">1. File -&gt; Make a copy</t>
   </si>
@@ -211,6 +212,9 @@
   </si>
   <si>
     <t>Posterior</t>
+  </si>
+  <si>
+    <t>device_tracker.gphone</t>
   </si>
 </sst>
 </file>
@@ -3113,7 +3117,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00200052-00A7-4183-BED8-0082004E008B}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{0018001D-00BE-4B99-8DB8-009300610099}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -3136,7 +3140,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0072000B-001B-48A2-9419-002F00330048}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00150079-00CD-4AF3-8BA0-00DB007600E1}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -3159,7 +3163,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{000D0069-0000-4742-8E5A-008600640058}">
+          <x14:cfRule type="expression" priority="6" id="{00B800AA-001B-422B-813F-0051006000DC}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -3181,7 +3185,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00E400C7-0031-4959-B7D3-001200FB0019}">
+          <x14:cfRule type="expression" priority="5" id="{00C1006D-0022-4230-8ADC-00A000DA00CA}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -3203,7 +3207,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{00E9003C-007F-4A6E-83DA-0088002900A5}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{009B0052-00C0-439E-8633-005E00770070}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -3225,7 +3229,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{009E008D-00B2-4EEC-A32C-0010008C005B}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{000400E4-0066-4C2B-8B0C-006600A60088}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -3247,7 +3251,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0047003A-00B1-4964-8934-005100150075}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00C100E2-00CC-4E89-BEDC-00250046007F}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -3269,7 +3273,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00BC00E7-0023-4497-A788-002C007A0010}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00D50073-00E4-40D7-8153-00F900B7003D}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -5471,7 +5475,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{005600AA-00F4-4B54-8719-00F600F80054}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{001B00F0-00F4-4A6D-BF51-00D100120039}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -5494,7 +5498,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00D200E8-0096-4B07-AF00-00490057006D}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00E80001-002E-4FB1-AB27-009A00B000C9}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -5517,7 +5521,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00E200CA-0053-4DC5-B7BB-0000005400E2}">
+          <x14:cfRule type="expression" priority="6" id="{00A40081-00D4-4096-80C1-0028005A00EC}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -5539,7 +5543,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{0035008E-00F0-4CFE-A028-00FC001900AD}">
+          <x14:cfRule type="expression" priority="5" id="{00A4005F-0097-4CC6-8C55-006E00730048}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -5561,7 +5565,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{00740020-00CB-4DDE-A9E8-003600E400EE}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{0017003B-0012-498A-8B1D-003700E0008D}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -5583,7 +5587,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{000500F5-0097-4B56-979C-0033005200EA}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{003D00A8-0083-4A36-B267-00A7004F0000}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -5605,7 +5609,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00040043-0096-4F58-AB64-00E0008900DA}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00D30070-0063-422B-865F-00FC00400067}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -5627,7 +5631,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00CF0061-00AA-4316-9979-008F002200BD}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{002400B3-001E-4E52-B52C-001200780024}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -7802,7 +7806,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00970064-0000-4E20-959D-007600BC0052}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00D400CB-00DD-496B-8D5A-0061009A00A2}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -7825,7 +7829,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00D40026-00A6-4F52-9168-005300180061}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00CA004D-00B3-477E-9EFB-00E9004700DE}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -7848,7 +7852,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{006600A5-0084-432A-B5B2-00D800BD0081}">
+          <x14:cfRule type="expression" priority="6" id="{00CC0093-0011-414F-95EB-0053000100B4}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -7870,7 +7874,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00EA0066-00CE-445E-9C00-00A50095008A}">
+          <x14:cfRule type="expression" priority="5" id="{006800F9-00FC-4C9C-A1DB-003B00B200C9}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -7892,7 +7896,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00C40068-006B-4442-B9D1-00F7005700AB}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00960065-0033-4013-AC2D-000400570061}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -7914,7 +7918,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00D20059-0059-4D1B-B776-0078003A0062}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{005D00D5-0013-4009-A528-008D007E0033}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -7936,7 +7940,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0045007D-00CB-4B93-9FD0-003C005A004E}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00E90051-008B-45AC-B368-00A300C60026}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -7958,7 +7962,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00430025-0007-4990-A754-00AD00B2009E}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{005500F1-00F0-449C-9FA1-009400040086}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10125,7 +10129,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00910087-00FC-4396-BE36-003E007B00F1}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{002C00AE-0036-44F3-BAB4-002600F900E5}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -10148,7 +10152,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00610048-0071-4231-AB79-00C6006300DF}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00B80080-0001-4E22-91AC-008400970084}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -10171,7 +10175,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00C20086-007B-4174-B94B-0086000100F2}">
+          <x14:cfRule type="expression" priority="6" id="{00FE001E-0021-4F2B-8152-005900D700A2}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -10193,7 +10197,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00060011-006F-4239-9B8D-004D00F0005F}">
+          <x14:cfRule type="expression" priority="5" id="{006A00EE-0089-4F75-A0C2-002900E1000F}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -10215,7 +10219,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B60085-00AE-452B-8427-002E00AE0005}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00300098-00A6-4654-93EC-005D008900C9}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -10237,7 +10241,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00AA0033-0049-47EB-9938-00D500420081}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0021009A-0003-4FF6-BCE2-005700BC00D1}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -10259,7 +10263,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{007B00B9-0025-42B3-9859-007700A60056}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00E9001E-0045-4CD9-938A-007600530095}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10281,7 +10285,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00B7003C-003A-419F-9BB9-001000E800E9}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{005000BE-00C8-452C-A05F-00A400650009}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10322,11 +10326,11 @@
   <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.879999999999999"/>
-    <col customWidth="1" min="2" max="2" width="30"/>
-    <col customWidth="1" min="3" max="3" width="24.25"/>
-    <col customWidth="1" min="4" max="4" width="23.379999999999999"/>
-    <col customWidth="1" min="5" max="5" width="22.129999999999999"/>
-    <col customWidth="1" min="6" max="6" width="19.629999999999999"/>
+    <col customWidth="1" min="2" max="2" width="33.421875"/>
+    <col customWidth="1" min="3" max="3" width="33.57421875"/>
+    <col customWidth="1" min="4" max="4" width="41.140625"/>
+    <col customWidth="1" min="5" max="5" width="32.00390625"/>
+    <col customWidth="1" min="6" max="6" width="31.7109375"/>
     <col customWidth="1" min="7" max="7" width="23.25"/>
   </cols>
   <sheetData>
@@ -10379,14 +10383,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="10" t="str">
         <f>$E$6&amp;" how many hours is "&amp;A7</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, how many hours is thuis</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11">
+        <v>14</v>
+      </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -10395,7 +10401,7 @@
       </c>
       <c r="B12" s="21">
         <f>A11/24</f>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -10406,10 +10412,18 @@
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -10439,10 +10453,18 @@
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -10465,73 +10487,73 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="137.59999999999999" customHeight="1">
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="30">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone home</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;D14&amp;" "&amp;D15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone_2 home</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;E14&amp;" "&amp;E15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone_ping home</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;F14&amp;" "&amp;F15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.gphone_detect home</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;G14&amp;" "&amp;G15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;H14&amp;" "&amp;H15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;I14&amp;" "&amp;I15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;J14&amp;" "&amp;J15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;K14&amp;" "&amp;K15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;L14&amp;" "&amp;L15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;M14&amp;" "&amp;M15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;N14&amp;" "&amp;N15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;O14&amp;" "&amp;O15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;P14&amp;" "&amp;P15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;Q14&amp;" "&amp;Q15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;R14&amp;" "&amp;R15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -10549,10 +10571,18 @@
         <f>"Hours to_state is true when "&amp;$A$7&amp;":"</f>
         <v xml:space="preserve">Hours to_state is true when thuis:</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="11">
+        <v>13.800000000000001</v>
+      </c>
+      <c r="D17" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="E17" s="11">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11">
+        <v>13.9</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -10580,68 +10610,68 @@
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="31">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="D18" s="20" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
-      </c>
-      <c r="E18" s="20" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
-      </c>
-      <c r="F18" s="20" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+      <c r="C18" s="20">
+        <f>IF(AND(C17&gt;0,C17&lt;$A$11),C17/$A$11,"NA")</f>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="D18" s="20">
+        <f>IF(AND(D17&gt;0,D17&lt;$A$11),D17/$A$11,"NA")</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E18" s="20">
+        <f>IF(AND(E17&gt;0,E17&lt;$A$11),E17/$A$11,"NA")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="20">
+        <f>IF(AND(F17&gt;0,F17&lt;$A$11),F17/$A$11,"NA")</f>
+        <v>0.99285714285714288</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(G17&gt;0,G17&lt;$A$11),G17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(H17&gt;0,H17&lt;$A$11),H17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(I17&gt;0,I17&lt;$A$11),I17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(J17&gt;0,J17&lt;$A$11),J17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(K17&gt;0,K17&lt;$A$11),K17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(L17&gt;0,L17&lt;$A$11),L17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(M17&gt;0,M17&lt;$A$11),M17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(N17&gt;0,N17&lt;$A$11),N17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(O17&gt;0,O17&lt;$A$11),O17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(P17&gt;0,P17&lt;$A$11),P17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(Q17&gt;0,Q17&lt;$A$11),Q17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(AND(R17&gt;0,R17&lt;$A$11),R17/$A$11,"NA")</f>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -10654,73 +10684,73 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="121.5" customHeight="1">
       <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="32">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone home</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;D14&amp;" "&amp;D15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone_2 home</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;E14&amp;" "&amp;E15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone_ping home</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;F14&amp;" "&amp;F15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.gphone_detect home</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;G14&amp;" "&amp;G15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;H14&amp;" "&amp;H15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;I14&amp;" "&amp;I15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;J14&amp;" "&amp;J15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;K14&amp;" "&amp;K15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;L14&amp;" "&amp;L15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;M14&amp;" "&amp;M15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;N14&amp;" "&amp;N15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;O14&amp;" "&amp;O15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;P14&amp;" "&amp;P15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;Q14&amp;" "&amp;Q15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+        <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;R14&amp;" "&amp;R15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -10737,10 +10767,18 @@
         <f>"Hours to_state is true when not "&amp;$A$7&amp;":"</f>
         <v xml:space="preserve">Hours to_state is true when not thuis:</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.10000000000000001</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -10768,68 +10806,68 @@
       <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="33">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="D21" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="E21" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="F21" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
+      <c r="C21" s="21">
+        <f>IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <v>5.0000000000000003e-02</v>
+      </c>
+      <c r="D21" s="21">
+        <f>IF(AND(D20&gt;0,D20&lt;(24-$A$11)),D20/(24-$A$11),"NA")</f>
+        <v>2.e-02</v>
+      </c>
+      <c r="E21" s="21">
+        <f>IF(AND(E20&gt;0,E20&lt;(24-$A$11)),E20/(24-$A$11),"NA")</f>
+        <v>1.e-02</v>
+      </c>
+      <c r="F21" s="21">
+        <f>IF(AND(F20&gt;0,F20&lt;(24-$A$11)),F20/(24-$A$11),"NA")</f>
+        <v>1.e-02</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(G20&gt;0,G20&lt;(24-$A$11)),G20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(H20&gt;0,H20&lt;(24-$A$11)),H20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(I20&gt;0,I20&lt;(24-$A$11)),I20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(J20&gt;0,J20&lt;(24-$A$11)),J20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(K20&gt;0,K20&lt;(24-$A$11)),K20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(L20&gt;0,L20&lt;(24-$A$11)),L20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(M20&gt;0,M20&lt;(24-$A$11)),M20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(N20&gt;0,N20&lt;(24-$A$11)),N20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(O20&gt;0,O20&lt;(24-$A$11)),O20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(P20&gt;0,P20&lt;(24-$A$11)),P20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(Q20&gt;0,Q20&lt;(24-$A$11)),Q20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(AND(R20&gt;0,R20&lt;(24-$A$11)),R20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -10842,81 +10880,83 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="22" ht="4.0999999999999996" customHeight="1"/>
+    <row r="23" ht="4.0999999999999996" customHeight="1"/>
+    <row r="24" ht="6.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="34">C14&amp;" is "&amp;C15</f>
-        <v>is</v>
+        <f>C14&amp;" is "&amp;C15</f>
+        <v xml:space="preserve">device_tracker.gphone is home</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>D14&amp;" is "&amp;D15</f>
+        <v xml:space="preserve">device_tracker.gphone_2 is home</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>E14&amp;" is "&amp;E15</f>
+        <v xml:space="preserve">device_tracker.gphone_ping is home</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>F14&amp;" is "&amp;F15</f>
+        <v xml:space="preserve">device_tracker.gphone_detect is home</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>G14&amp;" is "&amp;G15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>H14&amp;" is "&amp;H15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>I14&amp;" is "&amp;I15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>J14&amp;" is "&amp;J15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>K14&amp;" is "&amp;K15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>L14&amp;" is "&amp;L15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>M14&amp;" is "&amp;M15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>N14&amp;" is "&amp;N15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>O14&amp;" is "&amp;O15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>P14&amp;" is "&amp;P15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>Q14&amp;" is "&amp;Q15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>is</v>
+        <f>R14&amp;" is "&amp;R15</f>
+        <v xml:space="preserve"> is </v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -10933,7 +10973,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7" t="b">
         <v>0</v>
@@ -10942,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="7" t="b">
         <v>1</v>
@@ -11013,68 +11053,68 @@
         <v>30</v>
       </c>
       <c r="B29" s="23"/>
-      <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="35">IF(C$28,C18,(1-C18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
+      <c r="C29" s="22">
+        <f>IF(C$28,C18,(1-C18))</f>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="D29" s="22">
+        <f>IF(D$28,D18,(1-D18))</f>
+        <v>3.5714285714285698e-02</v>
+      </c>
+      <c r="E29" s="22">
+        <f>IF(E$28,E18,(1-E18))</f>
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="22">
+        <f>IF(F$28,F18,(1-F18))</f>
+        <v>0.99285714285714288</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="H29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q29" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" s="22" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(G$28,G18,(1-G18))</f>
+        <v>NA</v>
+      </c>
+      <c r="H29" s="22" t="e">
+        <f>IF(H$28,H18,(1-H18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="22" t="e">
+        <f>IF(I$28,I18,(1-I18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="22" t="e">
+        <f>IF(J$28,J18,(1-J18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="22" t="e">
+        <f>IF(K$28,K18,(1-K18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="22" t="e">
+        <f>IF(L$28,L18,(1-L18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="22" t="e">
+        <f>IF(M$28,M18,(1-M18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="22" t="e">
+        <f>IF(N$28,N18,(1-N18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" s="22" t="e">
+        <f>IF(O$28,O18,(1-O18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" s="22" t="e">
+        <f>IF(P$28,P18,(1-P18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q29" s="22" t="e">
+        <f>IF(Q$28,Q18,(1-Q18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="22" t="e">
+        <f>IF(R$28,R18,(1-R18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -11092,68 +11132,68 @@
         <v>32</v>
       </c>
       <c r="B30" s="23"/>
-      <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="36">IF(C$28,C21,(1-C21))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
+      <c r="C30" s="22">
+        <f>IF(C$28,C21,(1-C21))</f>
+        <v>5.0000000000000003e-02</v>
+      </c>
+      <c r="D30" s="22">
+        <f>IF(D$28,D21,(1-D21))</f>
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="E30" s="22">
+        <f>IF(E$28,E21,(1-E21))</f>
+        <v>0.98999999999999999</v>
+      </c>
+      <c r="F30" s="22">
+        <f>IF(F$28,F21,(1-F21))</f>
+        <v>1.e-02</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="H30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q30" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(G$28,G21,(1-G21))</f>
+        <v>NA</v>
+      </c>
+      <c r="H30" s="22" t="e">
+        <f>IF(H$28,H21,(1-H21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="22" t="e">
+        <f>IF(I$28,I21,(1-I21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="22" t="e">
+        <f>IF(J$28,J21,(1-J21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="22" t="e">
+        <f>IF(K$28,K21,(1-K21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="22" t="e">
+        <f>IF(L$28,L21,(1-L21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="22" t="e">
+        <f>IF(M$28,M21,(1-M21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="22" t="e">
+        <f>IF(N$28,N21,(1-N21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" s="22" t="e">
+        <f>IF(O$28,O21,(1-O21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P30" s="22" t="e">
+        <f>IF(P$28,P21,(1-P21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q30" s="22" t="e">
+        <f>IF(Q$28,Q21,(1-Q21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="22" t="e">
+        <f>IF(R$28,R21,(1-R21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -11171,68 +11211,68 @@
         <v>35</v>
       </c>
       <c r="B31" s="23"/>
-      <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="37">C29 * B33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q31" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" s="22" t="str">
-        <f t="shared" si="37"/>
+      <c r="C31" s="22">
+        <f>C29*B33</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D31" s="22">
+        <f>D29*C33</f>
+        <v>3.446553446553445e-02</v>
+      </c>
+      <c r="E31" s="22">
+        <f>E29*D33</f>
+        <v>0.25072674418604635</v>
+      </c>
+      <c r="F31" s="22">
+        <f>F29*E33</f>
+        <v>0.33446180628206496</v>
+      </c>
+      <c r="G31" s="22" t="e">
+        <f>G29*F33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="22" t="e">
+        <f>H29*G33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="22" t="e">
+        <f>I29*H33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="22" t="e">
+        <f>J29*I33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="22" t="e">
+        <f>K29*J33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="22" t="e">
+        <f>L29*K33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="22" t="e">
+        <f>M29*L33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="22" t="e">
+        <f>N29*M33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O31" s="22" t="e">
+        <f>O29*N33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" s="22" t="e">
+        <f>P29*O33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q31" s="22" t="e">
+        <f>Q29*P33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="22" t="e">
+        <f>R29*Q33</f>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -11250,68 +11290,68 @@
         <v>36</v>
       </c>
       <c r="B32" s="23"/>
-      <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="38">C31 + (C30 * (1-B33))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q32" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R32" s="22" t="str">
-        <f t="shared" si="38"/>
+      <c r="C32" s="22">
+        <f>C31+(C30*(1-B33))</f>
+        <v>0.59583333333333344</v>
+      </c>
+      <c r="D32" s="22">
+        <f>D31+(D30*(1-C33))</f>
+        <v>6.8731268731268752e-02</v>
+      </c>
+      <c r="E32" s="22">
+        <f>E31+(E30*(1-D33))</f>
+        <v>0.74428779069767459</v>
+      </c>
+      <c r="F32" s="22">
+        <f>F31+(F30*(1-E33))</f>
+        <v>0.34109312621879234</v>
+      </c>
+      <c r="G32" s="22" t="e">
+        <f>G31+(G30*(1-F33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="22" t="e">
+        <f>H31+(H30*(1-G33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="22" t="e">
+        <f>I31+(I30*(1-H33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="22" t="e">
+        <f>J31+(J30*(1-I33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="22" t="e">
+        <f>K31+(K30*(1-J33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="22" t="e">
+        <f>L31+(L30*(1-K33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="22" t="e">
+        <f>M31+(M30*(1-L33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="22" t="e">
+        <f>N31+(N30*(1-M33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32" s="22" t="e">
+        <f>O31+(O30*(1-N33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="22" t="e">
+        <f>P31+(P30*(1-O33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q32" s="22" t="e">
+        <f>Q31+(Q30*(1-P33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="22" t="e">
+        <f>R31+(R30*(1-Q33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -11330,70 +11370,70 @@
       </c>
       <c r="B33" s="22">
         <f>$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="39">C31/C32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q33" s="22" t="str">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R33" s="22" t="str">
-        <f t="shared" si="39"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C33" s="22">
+        <f>C31/C32</f>
+        <v>0.965034965034965</v>
+      </c>
+      <c r="D33" s="22">
+        <f>D31/D32</f>
+        <v>0.50145348837209269</v>
+      </c>
+      <c r="E33" s="22">
+        <f>E31/E32</f>
+        <v>0.33686800632725966</v>
+      </c>
+      <c r="F33" s="22">
+        <f>F31/F32</f>
+        <v>0.98055862335826205</v>
+      </c>
+      <c r="G33" s="22" t="e">
+        <f>G31/G32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="22" t="e">
+        <f>H31/H32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="22" t="e">
+        <f>I31/I32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="22" t="e">
+        <f>J31/J32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="22" t="e">
+        <f>K31/K32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="22" t="e">
+        <f>L31/L32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="22" t="e">
+        <f>M31/M32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="22" t="e">
+        <f>N31/N32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33" s="22" t="e">
+        <f>O31/O32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P33" s="22" t="e">
+        <f>P31/P32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q33" s="22" t="e">
+        <f>Q31/Q32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="22" t="e">
+        <f>R31/R32</f>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -11412,8 +11452,8 @@
         <v>54</v>
       </c>
       <c r="B35" s="22">
-        <f t="array" ref="B35">INDEX(33:33, MATCH(99^99,33:33, 1))</f>
-        <v>0</v>
+        <f t="array" ref="B35">INDEX(33:33,MATCH(99^99,33:33,1))</f>
+        <v>0.98055862335826205</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -11422,13 +11462,13 @@
       </c>
       <c r="B36" s="6" t="b">
         <f>B35&gt;A26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="24" t="str">
         <f>$A$7&amp;" is "&amp;IF(B36,"ON","OFF")</f>
-        <v xml:space="preserve">thuis is OFF</v>
+        <v xml:space="preserve">thuis is ON</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -11440,7 +11480,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="120" customHeight="1">
       <c r="A42" s="25" t="s">
         <v>40</v>
       </c>
@@ -12420,7 +12460,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00D80011-00EE-407A-B159-006600CD0059}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{004F0005-00F6-424E-AB66-003D000F0028}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -12443,7 +12483,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00A100D5-0049-467A-9F10-00A900970070}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00A40087-001D-4B09-84C8-00AA006200CB}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -12466,7 +12506,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{004F0004-00EB-4898-A61A-008900D300D9}">
+          <x14:cfRule type="expression" priority="6" id="{007D0013-00C6-4047-ACB9-0002004600D7}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -12488,7 +12528,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00260085-0055-4132-8F77-00C80073002E}">
+          <x14:cfRule type="expression" priority="5" id="{007F008F-0042-402C-B616-0039004300EE}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -12510,7 +12550,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00CA002C-0034-4E61-AF38-00D200270059}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00830015-00BB-4193-B0BE-00CE006600EB}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -12532,7 +12572,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00970066-0030-4BA3-B3BA-00A900F8004A}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0070001E-00A3-46FC-A665-002E002E0083}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -12554,7 +12594,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00F800D1-008C-4DC6-9312-001C00E000D3}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{000D0058-00EC-4C91-BF31-00EB00D600C1}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -12576,7 +12616,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{009A0097-0050-4353-A253-0057009600D7}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00A300BC-006B-49AD-BB61-005800BB000F}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -12765,67 +12805,67 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="40">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C16:R16" si="30">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="S16" s="17"/>
@@ -12876,67 +12916,67 @@
         <v>30</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="41">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <f t="shared" ref="C18:R18" si="31">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
         <v>NA</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -12954,67 +12994,67 @@
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="42">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C19:R19" si="32">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="S19" s="17"/>
@@ -13064,67 +13104,67 @@
         <v>32</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="43">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <f t="shared" ref="C21:R21" si="33">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -13150,67 +13190,67 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="44">C14&amp;" is "&amp;C15</f>
+        <f t="shared" ref="C27:R27" si="34">C14&amp;" is "&amp;C15</f>
         <v>is</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>is</v>
       </c>
       <c r="S27" s="22"/>
@@ -13309,67 +13349,67 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="45">IF(C$28,C18,(1-C18))</f>
+        <f t="shared" ref="C29:R29" si="35">IF(C$28,C18,(1-C18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="H29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="R29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -13388,67 +13428,67 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="46">IF(C$28,C21,(1-C21))</f>
+        <f t="shared" ref="C30:R30" si="36">IF(C$28,C21,(1-C21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="R30" s="22" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -13467,67 +13507,67 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="47">C29 * B33</f>
+        <f t="shared" ref="C31:R31" si="37">C29 * B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="R31" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -13546,67 +13586,67 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="48">C31 + (C30 * (1-B33))</f>
+        <f t="shared" ref="C32:R32" si="38">C31 + (C30 * (1-B33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="N32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="R32" s="22" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -13628,67 +13668,67 @@
         <v>0</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="49">C31/C32</f>
+        <f t="shared" ref="C33:R33" si="39">C31/C32</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="N33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="R33" s="22" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -14715,7 +14755,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00B90084-00B0-4AE5-A427-0056004600D8}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00320059-00D6-44B6-A44C-00B800060080}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -14738,7 +14778,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{006E0071-0087-4442-8863-002C002B00EE}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0055000F-004D-46D3-AC86-00AD00E3002A}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -14761,7 +14801,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00BA00D2-0010-4D8F-898F-006F00250060}">
+          <x14:cfRule type="expression" priority="6" id="{00C0006D-004B-49E1-B31F-002A006A00B0}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -14783,7 +14823,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00BD0092-00D4-4274-8D75-005C00DA00AB}">
+          <x14:cfRule type="expression" priority="5" id="{00BE00C8-003D-4CD7-9D0C-006D00AB0099}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -14805,7 +14845,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{003300EF-001C-48D7-9D99-006A0027001D}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{008700A5-00A2-49BF-8E4E-006900120083}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -14827,7 +14867,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00A300AB-0035-4160-A20D-004300A00037}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00E80015-00AE-4107-8B60-0083000500D8}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -14849,7 +14889,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00BD005D-006C-4EDE-B05F-007E008100AE}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00A20048-0070-4F0B-957F-002500D200B0}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -14871,7 +14911,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{001800DB-00AB-4965-A33E-0037006A00DC}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00400090-0035-4270-A90E-00F600320047}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -15060,67 +15100,67 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="50">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C16:R16" si="40">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="S16" s="17"/>
@@ -15171,67 +15211,67 @@
         <v>30</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="51">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <f t="shared" ref="C18:R18" si="41">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
         <v>NA</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -15249,67 +15289,67 @@
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="52">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C19:R19" si="42">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="S19" s="17"/>
@@ -15359,67 +15399,67 @@
         <v>32</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="53">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <f t="shared" ref="C21:R21" si="43">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -15445,67 +15485,67 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="54">C14&amp;" is "&amp;C15</f>
+        <f t="shared" ref="C27:R27" si="44">C14&amp;" is "&amp;C15</f>
         <v>is</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>is</v>
       </c>
       <c r="S27" s="22"/>
@@ -15604,67 +15644,67 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="55">IF(C$28,C18,(1-C18))</f>
+        <f t="shared" ref="C29:R29" si="45">IF(C$28,C18,(1-C18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>NA</v>
       </c>
       <c r="H29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="R29" s="22" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -15683,67 +15723,67 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="56">IF(C$28,C21,(1-C21))</f>
+        <f t="shared" ref="C30:R30" si="46">IF(C$28,C21,(1-C21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>NA</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="R30" s="22" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -15762,67 +15802,67 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="57">C29 * B33</f>
+        <f t="shared" ref="C31:R31" si="47">C29 * B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="R31" s="22" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -15841,67 +15881,67 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="58">C31 + (C30 * (1-B33))</f>
+        <f t="shared" ref="C32:R32" si="48">C31 + (C30 * (1-B33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="N32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R32" s="22" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -15923,67 +15963,67 @@
         <v>0</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="59">C31/C32</f>
+        <f t="shared" ref="C33:R33" si="49">C31/C32</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="N33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="R33" s="22" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -17010,7 +17050,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00E2007E-007F-4060-B5D5-00290011008C}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00C800AD-00AC-4798-8362-0070003A0040}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -17033,7 +17073,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0085006E-00EB-4E6E-A4D0-003F005300DC}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{008A00B1-0099-43C4-8A51-002F006A008D}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -17056,7 +17096,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00D50097-000A-4EF6-8465-004A00290008}">
+          <x14:cfRule type="expression" priority="6" id="{00D70077-0054-4FFD-8E4C-002C00E900FE}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -17078,7 +17118,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00C4002F-004F-4423-9F89-00D60070000E}">
+          <x14:cfRule type="expression" priority="5" id="{007E00A1-00A9-4332-8994-00A100D6003B}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -17100,7 +17140,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00870075-0003-4F43-AACB-004D00D50083}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00F60065-00B4-4AE7-9E4A-009F00580036}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -17122,7 +17162,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{003100A3-00AA-4D14-B030-001800BB0059}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00FC00DE-0077-4AE3-A075-002800B9007A}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -17144,7 +17184,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00960034-0002-4A31-B225-0058007C0016}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0054005A-0024-460E-81E5-009400D10032}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -17166,7 +17206,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{0023003A-003F-4324-92D4-006E009B00AF}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00CF007A-00A6-4568-9135-006500380086}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -17355,67 +17395,67 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" ref="C16:R16" si="60">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C16:R16" si="50">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
       </c>
       <c r="S16" s="17"/>
@@ -17466,67 +17506,67 @@
         <v>30</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" ref="C18:R18" si="61">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <f t="shared" ref="C18:R18" si="51">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
         <v>NA</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="E18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="I18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="J18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="R18" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="S18" s="20"/>
@@ -17544,67 +17584,67 @@
         <v>31</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" ref="C19:R19" si="62">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <f t="shared" ref="C19:R19" si="52">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="L19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="M19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="N19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="O19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="R19" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
       </c>
       <c r="S19" s="17"/>
@@ -17654,67 +17694,67 @@
         <v>32</v>
       </c>
       <c r="C21" s="21" t="str">
-        <f t="shared" ref="C21:R21" si="63">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <f t="shared" ref="C21:R21" si="53">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
         <v>NA</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="E21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="L21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="N21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="Q21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="R21" s="21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="S21" s="21"/>
@@ -17740,67 +17780,67 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:R27" si="64">C14&amp;" is "&amp;C15</f>
+        <f t="shared" ref="C27:R27" si="54">C14&amp;" is "&amp;C15</f>
         <v>is</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="H27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="K27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="N27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="P27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="Q27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="R27" s="22" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>is</v>
       </c>
       <c r="S27" s="22"/>
@@ -17899,67 +17939,67 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:R29" si="65">IF(C$28,C18,(1-C18))</f>
+        <f t="shared" ref="C29:R29" si="55">IF(C$28,C18,(1-C18))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>NA</v>
       </c>
       <c r="H29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="R29" s="22" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="22"/>
@@ -17978,67 +18018,67 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:R30" si="66">IF(C$28,C21,(1-C21))</f>
+        <f t="shared" ref="C30:R30" si="56">IF(C$28,C21,(1-C21))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>NA</v>
       </c>
       <c r="H30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="P30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="R30" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="22"/>
@@ -18057,67 +18097,67 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" ref="C31:R31" si="67">C29 * B33</f>
+        <f t="shared" ref="C31:R31" si="57">C29 * B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="P31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="R31" s="22" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="22"/>
@@ -18136,67 +18176,67 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" ref="C32:R32" si="68">C31 + (C30 * (1-B33))</f>
+        <f t="shared" ref="C32:R32" si="58">C31 + (C30 * (1-B33))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="N32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="P32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="R32" s="22" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="22"/>
@@ -18218,67 +18258,67 @@
         <v>0</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:R33" si="69">C31/C32</f>
+        <f t="shared" ref="C33:R33" si="59">C31/C32</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="N33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="R33" s="22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="22"/>
@@ -19305,7 +19345,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00890014-0013-4461-948D-001400050045}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00090027-006F-4F45-84BE-00DC00030060}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -19328,7 +19368,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00BE0085-0011-4420-8D1F-001700B4001C}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{009B000E-0092-4980-9A54-007E009E0067}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -19351,7 +19391,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00CB00AE-0068-4646-9BF1-00B1009700AB}">
+          <x14:cfRule type="expression" priority="6" id="{006B0024-00EF-4345-9703-00C300DD0024}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -19373,7 +19413,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{000100CE-0080-4408-A670-000B00BF00B4}">
+          <x14:cfRule type="expression" priority="5" id="{00760078-007A-452A-BAFA-00E7008A0048}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -19395,7 +19435,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B5003C-0098-43DC-8281-0018001F0022}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{006500B4-0028-4C97-AA07-005F002700CC}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -19417,7 +19457,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{002300EE-002B-4667-A916-00650084004D}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00BF00A8-009C-4B58-9F48-00D200AC0032}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -19439,7 +19479,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{000E0037-00D2-4CF5-AFCD-00B2002F008A}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{001A0092-00E5-489E-8E75-0060004E004C}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -19461,7 +19501,2302 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00D80064-00F7-4A15-8EAF-002600BA0055}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00500001-000E-4139-8640-00CA00FE00B2}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A18 C18:AA18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.879999999999999"/>
+    <col customWidth="1" min="2" max="2" width="30"/>
+    <col customWidth="1" min="3" max="3" width="24.25"/>
+    <col customWidth="1" min="4" max="4" width="23.379999999999999"/>
+    <col customWidth="1" min="5" max="5" width="22.129999999999999"/>
+    <col customWidth="1" min="6" max="6" width="19.629999999999999"/>
+    <col customWidth="1" min="7" max="7" width="23.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="str">
+        <f>$E$6&amp;" how many hours is "&amp;A7</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, how many hours is thuis</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="21">
+        <f>A11/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f t="shared" ref="C16:R16" si="60">$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="I16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="K16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="L16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="M16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="N16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="O16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="P16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="Q16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="R16" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the  hours when thuis, how many hours is</v>
+      </c>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="str">
+        <f>"Hours to_state is true when "&amp;$A$7&amp;":"</f>
+        <v xml:space="preserve">Hours to_state is true when thuis:</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f t="shared" ref="C18:R18" si="61">IF(AND(C17&gt;0,C17&lt;$A$11), C17/$A$11, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="F18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="H18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="I18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="J18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="K18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="L18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="M18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="N18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="O18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="P18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Q18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="R18" s="20" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f t="shared" ref="C19:R19" si="62">$E$6&amp;" of the "&amp;24 - $A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;C14&amp;" "&amp;C15</f>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="I19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="K19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="L19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="M19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="N19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="O19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="P19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="Q19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="R19" s="16" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 24 hours when not thuis, how many hours is</v>
+      </c>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="str">
+        <f>"Hours to_state is true when not "&amp;$A$7&amp;":"</f>
+        <v xml:space="preserve">Hours to_state is true when not thuis:</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="21" t="str">
+        <f t="shared" ref="C21:R21" si="63">IF(AND(C20&gt;0,C20&lt;(24-$A$11)),C20/(24-$A$11),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="D21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="E21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="F21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="G21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="H21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="I21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="K21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="L21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="M21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="N21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="O21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="P21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="Q21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="R21" s="21" t="str">
+        <f t="shared" si="63"/>
+        <v>NA</v>
+      </c>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="C27" s="22" t="str">
+        <f t="shared" ref="C27:R27" si="64">C14&amp;" is "&amp;C15</f>
+        <v>is</v>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="E27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="F27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="G27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="H27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="I27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="J27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="K27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="L27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="M27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="N27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="O27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="P27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="Q27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="R27" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>is</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" hidden="1" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22" t="str">
+        <f t="shared" ref="C29:R29" si="65">IF(C$28,C18,(1-C18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>NA</v>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="22" t="str">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+    </row>
+    <row r="30" ht="15.75" hidden="1" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22" t="str">
+        <f t="shared" ref="C30:R30" si="66">IF(C$28,C21,(1-C21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>NA</v>
+      </c>
+      <c r="H30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+    </row>
+    <row r="31" ht="15.75" hidden="1" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22" t="str">
+        <f t="shared" ref="C31:R31" si="67">C29 * B33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="22" t="str">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+    </row>
+    <row r="32" ht="15.75" hidden="1" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="str">
+        <f t="shared" ref="C32:R32" si="68">C31 + (C30 * (1-B33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="22" t="str">
+        <f t="shared" si="68"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+    </row>
+    <row r="33" ht="15.75" hidden="1" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="22">
+        <f>$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="22" t="str">
+        <f t="shared" ref="C33:R33" si="69">C31/C32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="22" t="str">
+        <f t="shared" si="69"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="22">
+        <f t="array" ref="B35">INDEX(33:33, MATCH(99^99,33:33, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="b">
+        <f>B35&gt;A26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="24" t="str">
+        <f>$A$7&amp;" is "&amp;IF(B36,"ON","OFF")</f>
+        <v xml:space="preserve">thuis is OFF</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="14" t="str">
+        <f>"7. Change Threshold to get desired performance. Increase to reduce "&amp;$A$7&amp;" turning on falesly. Reduce the threshold to reduce it turning off falsely."</f>
+        <v xml:space="preserve">7. Change Threshold to get desired performance. Increase to reduce thuis turning on falesly. Reduce the threshold to reduce it turning off falsely.</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A37:B38"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="full-examples" ref="A3"/>
+    <hyperlink r:id="rId1" location="estimating-probabilities" ref="A42"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{002500A4-000C-4050-AFFB-00B0006100CA}">
+            <xm:f>0.001</xm:f>
+            <xm:f>23.999</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00100039-0060-49B5-81DB-00EF0039004E}">
+            <xm:f>0.0001</xm:f>
+            <xm:f>0.9999</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" id="{00C900FA-00F9-4A9B-B56D-00C500CD0069}">
+            <xm:f>NOT($B$36)</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFBF9000"/>
+                  <bgColor rgb="FFBF9000"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A37:B38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{004A00F8-0098-489E-ADB5-001700770086}">
+            <xm:f>$B$36</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF38761D"/>
+                  <bgColor rgb="FF38761D"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A37:B38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00630096-00FB-4547-9BDA-00890003002B}">
+            <xm:f>24-$A$11</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A20 C20:AA20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0038004A-00D5-4E03-B12A-006400A100A5}">
+            <xm:f>$A$11</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A17 C17:AA17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{004800C5-00F1-4BC1-BD10-0027004C00C5}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{004F004B-00CA-47F7-AE7E-0008002E0065}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>

--- a/documentation/Bayesian Tester.xlsx
+++ b/documentation/Bayesian Tester.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">1. File -&gt; Make a copy</t>
   </si>
@@ -216,16 +216,19 @@
   <si>
     <t>device_tracker.gphone</t>
   </si>
+  <si>
+    <t>device_tracker.mphone_bermuda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="160" formatCode="[$$]#,##0.00"/>
-    <numFmt numFmtId="161" formatCode="0.0 &quot;hours&quot;"/>
-    <numFmt numFmtId="162" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="163" formatCode="0.00 &quot;hours&quot;"/>
+    <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0 &quot;hours&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00 &quot;hours&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -370,18 +373,18 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -396,7 +399,7 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="3" borderId="2" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,7 +408,7 @@
     <xf fontId="3" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,17 +428,17 @@
     <xf fontId="3" fillId="3" borderId="1" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="1" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3117,7 +3120,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{0018001D-00BE-4B99-8DB8-009300610099}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00A20092-00BE-437B-B837-006D007900A7}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -3140,7 +3143,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00150079-00CD-4AF3-8BA0-00DB007600E1}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{007E00DD-0012-4254-96D0-00560014008B}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -3163,7 +3166,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00B800AA-001B-422B-813F-0051006000DC}">
+          <x14:cfRule type="expression" priority="6" id="{003300E8-00DD-4943-83F5-00630032001B}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -3185,7 +3188,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00C1006D-0022-4230-8ADC-00A000DA00CA}">
+          <x14:cfRule type="expression" priority="5" id="{00C20061-00D1-4104-B04F-006C00B3008E}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -3207,7 +3210,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{009B0052-00C0-439E-8633-005E00770070}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{007F0097-006A-4FB1-AC42-002D00E200AA}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -3229,7 +3232,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{000400E4-0066-4C2B-8B0C-006600A60088}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00860074-0048-4099-9B84-0073009700FE}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -3251,7 +3254,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00C100E2-00CC-4E89-BEDC-00250046007F}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00B800E9-00F3-4FD8-BC55-006F007C0075}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -3273,7 +3276,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00D50073-00E4-40D7-8153-00F900B7003D}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00920002-00C5-44B9-9E9D-003300BB00C8}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -5475,7 +5478,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{001B00F0-00F4-4A6D-BF51-00D100120039}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00060086-0026-48D6-BF08-001B00940017}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -5498,7 +5501,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00E80001-002E-4FB1-AB27-009A00B000C9}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{001000A2-003A-4F98-9F39-002A007E00A0}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -5521,7 +5524,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00A40081-00D4-4096-80C1-0028005A00EC}">
+          <x14:cfRule type="expression" priority="6" id="{00A20055-00B4-403D-B18D-00270086008E}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -5543,7 +5546,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00A4005F-0097-4CC6-8C55-006E00730048}">
+          <x14:cfRule type="expression" priority="5" id="{00F300D2-008E-477A-B11B-00C300160004}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -5565,7 +5568,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{0017003B-0012-498A-8B1D-003700E0008D}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{00990058-0029-4551-BA95-00D5004600E2}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -5587,7 +5590,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{003D00A8-0083-4A36-B267-00A7004F0000}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" id="{00CF0029-0000-415F-8B8A-002800DB0042}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -5609,7 +5612,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00D30070-0063-422B-865F-00FC00400067}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00190032-0090-4768-B24E-008C00F7007E}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -5631,7 +5634,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{002400B3-001E-4E52-B52C-001200780024}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{003F007C-004A-431B-BB72-00E7005E0089}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -7806,7 +7809,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00D400CB-00DD-496B-8D5A-0061009A00A2}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{009500AA-00C3-4543-A5DE-00E1000600DF}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -7829,7 +7832,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00CA004D-00B3-477E-9EFB-00E9004700DE}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{006500E1-0051-486D-B343-00FA00E2005B}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -7852,7 +7855,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00CC0093-0011-414F-95EB-0053000100B4}">
+          <x14:cfRule type="expression" priority="6" id="{003A0083-00BA-491F-9B8C-00F700460064}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -7874,7 +7877,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{006800F9-00FC-4C9C-A1DB-003B00B200C9}">
+          <x14:cfRule type="expression" priority="5" id="{00F90007-0036-4F14-976F-00E5007300DC}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -7896,7 +7899,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00960065-0033-4013-AC2D-000400570061}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00D400F6-00EF-4438-B750-0095006000B9}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -7918,7 +7921,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{005D00D5-0013-4009-A528-008D007E0033}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{003B00D2-00D0-4D6E-961B-00B300CF003A}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -7940,7 +7943,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00E90051-008B-45AC-B368-00A300C60026}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{007B001B-0033-4657-AF09-005B00B000BA}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -7962,7 +7965,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{005500F1-00F0-449C-9FA1-009400040086}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00350019-00A8-4108-80F7-005100E800AA}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10129,7 +10132,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{002C00AE-0036-44F3-BAB4-002600F900E5}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{002C00FC-00EB-4767-BFEC-00CC00C8007E}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -10152,7 +10155,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00B80080-0001-4E22-91AC-008400970084}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00EC00C0-0053-46FF-9C3B-00AF003B0082}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -10175,7 +10178,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00FE001E-0021-4F2B-8152-005900D700A2}">
+          <x14:cfRule type="expression" priority="6" id="{003E0017-00B7-447F-85CE-00BD00D000B2}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -10197,7 +10200,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{006A00EE-0089-4F75-A0C2-002900E1000F}">
+          <x14:cfRule type="expression" priority="5" id="{00FF0047-0057-4EBB-8FDC-00F4003A00EA}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -10219,7 +10222,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00300098-00A6-4654-93EC-005D008900C9}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00F20002-001E-4FCB-A92C-0056003D00D2}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -10241,7 +10244,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0021009A-0003-4FF6-BCE2-005700BC00D1}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00070056-00A2-466F-AD9D-006000BE001A}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -10263,7 +10266,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00E9001E-0045-4CD9-938A-007600530095}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00800069-00B5-4E70-9CCE-005C001C00E8}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10285,7 +10288,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{005000BE-00C8-452C-A05F-00A400650009}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00EA0075-00D3-406E-ADC0-0016004F00AD}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -10319,7 +10322,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10331,7 +10334,7 @@
     <col customWidth="1" min="4" max="4" width="41.140625"/>
     <col customWidth="1" min="5" max="5" width="32.00390625"/>
     <col customWidth="1" min="6" max="6" width="31.7109375"/>
-    <col customWidth="1" min="7" max="7" width="23.25"/>
+    <col customWidth="1" min="7" max="7" width="31.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -10424,7 +10427,9 @@
       <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -10465,7 +10470,9 @@
       <c r="F15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -10509,7 +10516,7 @@
       </c>
       <c r="G16" s="16" t="str">
         <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;G14&amp;" "&amp;G15</f>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is  </v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 14 hours when thuis, how many hours is device_tracker.mphone_bermuda home</v>
       </c>
       <c r="H16" s="16" t="str">
         <f>$E$6&amp;" of the "&amp;$A$11&amp;" hours when "&amp;$A$7&amp;", how many hours is "&amp;H14&amp;" "&amp;H15</f>
@@ -10581,9 +10588,11 @@
         <v>7</v>
       </c>
       <c r="F17" s="11">
+        <v>13.800000000000001</v>
+      </c>
+      <c r="G17" s="11">
         <v>13.9</v>
       </c>
-      <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -10624,11 +10633,11 @@
       </c>
       <c r="F18" s="20">
         <f>IF(AND(F17&gt;0,F17&lt;$A$11),F17/$A$11,"NA")</f>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="G18" s="20">
+        <f>IF(AND(G17&gt;0,G17&lt;$A$11),G17/$A$11,"NA")</f>
         <v>0.99285714285714288</v>
-      </c>
-      <c r="G18" s="20" t="str">
-        <f>IF(AND(G17&gt;0,G17&lt;$A$11),G17/$A$11,"NA")</f>
-        <v>NA</v>
       </c>
       <c r="H18" s="20" t="str">
         <f>IF(AND(H17&gt;0,H17&lt;$A$11),H17/$A$11,"NA")</f>
@@ -10706,7 +10715,7 @@
       </c>
       <c r="G19" s="16" t="str">
         <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;G14&amp;" "&amp;G15</f>
-        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is  </v>
+        <v xml:space="preserve">Fill below. On an average day - including weekends, of the 10 hours when not thuis, how many hours is device_tracker.mphone_bermuda home</v>
       </c>
       <c r="H19" s="16" t="str">
         <f>$E$6&amp;" of the "&amp;24-$A$11&amp;" hours when not "&amp;$A$7&amp;", how many hours is "&amp;H14&amp;" "&amp;H15</f>
@@ -10777,9 +10786,11 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="F20" s="11">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="G20" s="11">
         <v>0.10000000000000001</v>
       </c>
-      <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -10820,11 +10831,11 @@
       </c>
       <c r="F21" s="21">
         <f>IF(AND(F20&gt;0,F20&lt;(24-$A$11)),F20/(24-$A$11),"NA")</f>
+        <v>2.e-02</v>
+      </c>
+      <c r="G21" s="21">
+        <f>IF(AND(G20&gt;0,G20&lt;(24-$A$11)),G20/(24-$A$11),"NA")</f>
         <v>1.e-02</v>
-      </c>
-      <c r="G21" s="21" t="str">
-        <f>IF(AND(G20&gt;0,G20&lt;(24-$A$11)),G20/(24-$A$11),"NA")</f>
-        <v>NA</v>
       </c>
       <c r="H21" s="21" t="str">
         <f>IF(AND(H20&gt;0,H20&lt;(24-$A$11)),H20/(24-$A$11),"NA")</f>
@@ -10912,7 +10923,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f>G14&amp;" is "&amp;G15</f>
-        <v xml:space="preserve"> is </v>
+        <v xml:space="preserve">device_tracker.mphone_bermuda is home</v>
       </c>
       <c r="H27" s="22" t="str">
         <f>H14&amp;" is "&amp;H15</f>
@@ -10976,13 +10987,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="7" t="b">
         <v>1</v>
@@ -11059,7 +11070,7 @@
       </c>
       <c r="D29" s="22">
         <f>IF(D$28,D18,(1-D18))</f>
-        <v>3.5714285714285698e-02</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E29" s="22">
         <f>IF(E$28,E18,(1-E18))</f>
@@ -11067,11 +11078,11 @@
       </c>
       <c r="F29" s="22">
         <f>IF(F$28,F18,(1-F18))</f>
+        <v>1.4285714285714235e-02</v>
+      </c>
+      <c r="G29" s="22">
+        <f>IF(G$28,G18,(1-G18))</f>
         <v>0.99285714285714288</v>
-      </c>
-      <c r="G29" s="22" t="str">
-        <f>IF(G$28,G18,(1-G18))</f>
-        <v>NA</v>
       </c>
       <c r="H29" s="22" t="e">
         <f>IF(H$28,H18,(1-H18))</f>
@@ -11138,7 +11149,7 @@
       </c>
       <c r="D30" s="22">
         <f>IF(D$28,D21,(1-D21))</f>
-        <v>0.97999999999999998</v>
+        <v>2.e-02</v>
       </c>
       <c r="E30" s="22">
         <f>IF(E$28,E21,(1-E21))</f>
@@ -11146,11 +11157,11 @@
       </c>
       <c r="F30" s="22">
         <f>IF(F$28,F21,(1-F21))</f>
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="G30" s="22">
+        <f>IF(G$28,G21,(1-G21))</f>
         <v>1.e-02</v>
-      </c>
-      <c r="G30" s="22" t="str">
-        <f>IF(G$28,G21,(1-G21))</f>
-        <v>NA</v>
       </c>
       <c r="H30" s="22" t="e">
         <f>IF(H$28,H21,(1-H21))</f>
@@ -11217,19 +11228,19 @@
       </c>
       <c r="D31" s="22">
         <f>D29*C33</f>
-        <v>3.446553446553445e-02</v>
+        <v>0.93056943056943053</v>
       </c>
       <c r="E31" s="22">
         <f>E29*D33</f>
-        <v>0.25072674418604635</v>
+        <v>0.49962454408925122</v>
       </c>
       <c r="F31" s="22">
         <f>F29*E33</f>
-        <v>0.33446180628206496</v>
-      </c>
-      <c r="G31" s="22" t="e">
+        <v>1.4264489827420294e-02</v>
+      </c>
+      <c r="G31" s="22">
         <f>G29*F33</f>
-        <v>#VALUE!</v>
+        <v>0.90090084448533747</v>
       </c>
       <c r="H31" s="22" t="e">
         <f>H29*G33</f>
@@ -11296,19 +11307,19 @@
       </c>
       <c r="D32" s="22">
         <f>D31+(D30*(1-C33))</f>
-        <v>6.8731268731268752e-02</v>
+        <v>0.93126873126873122</v>
       </c>
       <c r="E32" s="22">
         <f>E31+(E30*(1-D33))</f>
-        <v>0.74428779069767459</v>
+        <v>0.50036794679253382</v>
       </c>
       <c r="F32" s="22">
         <f>F31+(F30*(1-E33))</f>
-        <v>0.34109312621879234</v>
-      </c>
-      <c r="G32" s="22" t="e">
+        <v>1.5720487666384682e-02</v>
+      </c>
+      <c r="G32" s="22">
         <f>G31+(G30*(1-F33))</f>
-        <v>#VALUE!</v>
+        <v>0.90182702303008944</v>
       </c>
       <c r="H32" s="22" t="e">
         <f>H31+(H30*(1-G33))</f>
@@ -11378,19 +11389,19 @@
       </c>
       <c r="D33" s="22">
         <f>D31/D32</f>
-        <v>0.50145348837209269</v>
+        <v>0.99924908817850244</v>
       </c>
       <c r="E33" s="22">
         <f>E31/E32</f>
-        <v>0.33686800632725966</v>
+        <v>0.99851428791942409</v>
       </c>
       <c r="F33" s="22">
         <f>F31/F32</f>
-        <v>0.98055862335826205</v>
-      </c>
-      <c r="G33" s="22" t="e">
+        <v>0.90738214552480034</v>
+      </c>
+      <c r="G33" s="22">
         <f>G31/G32</f>
-        <v>#VALUE!</v>
+        <v>0.99897299756926772</v>
       </c>
       <c r="H33" s="22" t="e">
         <f>H31/H32</f>
@@ -11453,7 +11464,7 @@
       </c>
       <c r="B35" s="22">
         <f t="array" ref="B35">INDEX(33:33,MATCH(99^99,33:33,1))</f>
-        <v>0.98055862335826205</v>
+        <v>0.99897299756926772</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -12460,7 +12471,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{004F0005-00F6-424E-AB66-003D000F0028}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00F80033-00FD-4B12-8BEF-00F9009700E5}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -12483,7 +12494,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00A40087-001D-4B09-84C8-00AA006200CB}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0056008F-00B8-4BD0-973F-00C900D50096}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -12506,7 +12517,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{007D0013-00C6-4047-ACB9-0002004600D7}">
+          <x14:cfRule type="expression" priority="6" id="{002A0068-00E0-424E-AE4F-003400970066}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -12528,7 +12539,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{007F008F-0042-402C-B616-0039004300EE}">
+          <x14:cfRule type="expression" priority="5" id="{000000DF-0071-4808-BDEA-007B009A00CD}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -12550,7 +12561,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00830015-00BB-4193-B0BE-00CE006600EB}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00430054-00AA-4079-AF20-009C004F0045}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -12572,7 +12583,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0070001E-00A3-46FC-A665-002E002E0083}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00BD0084-00FE-4A25-86E0-003F00CE008B}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -12594,7 +12605,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{000D0058-00EC-4C91-BF31-00EB00D600C1}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00F80068-00FD-4D43-834C-003100E3008F}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -12616,7 +12627,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00A300BC-006B-49AD-BB61-005800BB000F}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{0003003D-0023-4865-A3F1-00CA007C00F4}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -14755,7 +14766,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00320059-00D6-44B6-A44C-00B800060080}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00EE00C4-000F-4A16-B444-004A004E0026}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -14778,7 +14789,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{0055000F-004D-46D3-AC86-00AD00E3002A}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{008100C9-00AC-42C3-9DE9-00D800D400A8}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -14801,7 +14812,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00C0006D-004B-49E1-B31F-002A006A00B0}">
+          <x14:cfRule type="expression" priority="6" id="{008F0090-0049-4637-B9C7-0098009F00E9}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -14823,7 +14834,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00BE00C8-003D-4CD7-9D0C-006D00AB0099}">
+          <x14:cfRule type="expression" priority="5" id="{0021009A-006F-4DCA-9E55-002100AE0098}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -14845,7 +14856,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{008700A5-00A2-49BF-8E4E-006900120083}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{009D00D4-0052-4AEF-8C3E-0010003300BE}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -14867,7 +14878,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00E80015-00AE-4107-8B60-0083000500D8}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00F8001F-0012-4A82-8113-00AA0040003E}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -14889,7 +14900,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00A20048-0070-4F0B-957F-002500D200B0}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00A000C1-007A-4406-A062-00B500130019}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -14911,7 +14922,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00400090-0035-4270-A90E-00F600320047}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00840068-0070-44DC-AA60-0052007100E6}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -17050,7 +17061,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00C800AD-00AC-4798-8362-0070003A0040}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{000E00B7-00F8-44E9-9CE6-000800B7004A}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -17073,7 +17084,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{008A00B1-0099-43C4-8A51-002F006A008D}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{002700CE-009C-4C00-ADF7-00F100F8009D}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -17096,7 +17107,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00D70077-0054-4FFD-8E4C-002C00E900FE}">
+          <x14:cfRule type="expression" priority="6" id="{00CC00FA-008C-4DEC-BF9F-005300C200E9}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -17118,7 +17129,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{007E00A1-00A9-4332-8994-00A100D6003B}">
+          <x14:cfRule type="expression" priority="5" id="{00D40045-008C-45C0-A033-004500E40071}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -17140,7 +17151,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00F60065-00B4-4AE7-9E4A-009F00580036}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00EB0087-005D-490B-B739-0071007100CB}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -17162,7 +17173,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00FC00DE-0077-4AE3-A075-002800B9007A}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00AF00FD-0013-4AEA-8C4B-006E003800B2}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -17184,7 +17195,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{0054005A-0024-460E-81E5-009400D10032}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00A400F2-0068-4B4C-9E66-00BC00B2007D}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -17206,7 +17217,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00CF007A-00A6-4568-9135-006500380086}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{008E00CF-00F0-4B23-9083-00FA00670088}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -19345,7 +19356,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00090027-006F-4F45-84BE-00DC00030060}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00C90005-00EF-469D-AD7D-003600210012}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -19368,7 +19379,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{009B000E-0092-4980-9A54-007E009E0067}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00CF0078-007B-4B71-A380-009D00640037}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -19391,7 +19402,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{006B0024-00EF-4345-9703-00C300DD0024}">
+          <x14:cfRule type="expression" priority="6" id="{00F2006D-0018-4FFF-A218-007C004500E1}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -19413,7 +19424,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00760078-007A-452A-BAFA-00E7008A0048}">
+          <x14:cfRule type="expression" priority="5" id="{00C6002E-00DC-41BE-8DF2-003300380063}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -19435,7 +19446,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{006500B4-0028-4C97-AA07-005F002700CC}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00A400D9-0093-44AC-BB6B-00A50079008D}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -19457,7 +19468,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00BF00A8-009C-4B58-9F48-00D200AC0032}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00EB002E-00C3-443C-B5F0-00FA003C00C8}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -19479,7 +19490,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{001A0092-00E5-489E-8E75-0060004E004C}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00FB00E5-001A-486C-81BE-000B0091007B}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -19501,7 +19512,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00500001-000E-4139-8640-00CA00FE00B2}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00AB0008-008C-4FFB-B659-00F700E40041}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -21640,7 +21651,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{002500A4-000C-4050-AFFB-00B0006100CA}">
+          <x14:cfRule type="cellIs" priority="8" operator="notBetween" id="{00F700F3-0041-42B3-B2D7-007000DC00A4}">
             <xm:f>0.001</xm:f>
             <xm:f>23.999</xm:f>
             <x14:dxf>
@@ -21663,7 +21674,7 @@
           <xm:sqref>A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00100039-0060-49B5-81DB-00EF0039004E}">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{00D40074-00A6-40BF-AA5F-00F500F60074}">
             <xm:f>0.0001</xm:f>
             <xm:f>0.9999</xm:f>
             <x14:dxf>
@@ -21686,7 +21697,7 @@
           <xm:sqref>A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{00C900FA-00F9-4A9B-B56D-00C500CD0069}">
+          <x14:cfRule type="expression" priority="6" id="{00D700EA-0018-4466-AA3A-00D30062002E}">
             <xm:f>NOT($B$36)</xm:f>
             <x14:dxf>
               <font/>
@@ -21708,7 +21719,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{004A00F8-0098-489E-ADB5-001700770086}">
+          <x14:cfRule type="expression" priority="5" id="{003100BD-009D-406B-A7A5-0099005C00AA}">
             <xm:f>$B$36</xm:f>
             <x14:dxf>
               <font/>
@@ -21730,7 +21741,7 @@
           <xm:sqref>A37:B38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00630096-00FB-4547-9BDA-00890003002B}">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{0040006E-008E-4E60-93A6-00F0002200A6}">
             <xm:f>24-$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -21752,7 +21763,7 @@
           <xm:sqref>A20 C20:AA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{0038004A-00D5-4E03-B12A-006400A100A5}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{003D00A6-002A-44D9-B852-00B800B700A9}">
             <xm:f>$A$11</xm:f>
             <x14:dxf>
               <font/>
@@ -21774,7 +21785,7 @@
           <xm:sqref>A17 C17:AA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{004800C5-00F1-4BC1-BD10-0027004C00C5}">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{008F006D-0048-4D14-88EA-000B00B70066}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
@@ -21796,7 +21807,7 @@
           <xm:sqref>A21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{004F004B-00CA-47F7-AE7E-0008002E0065}">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00F300E9-0095-4793-AF6B-005C0066002C}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font/>
